--- a/JI_TPA.xlsx
+++ b/JI_TPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Js Document\Jaysie\College\LAB\Lab\TPA\TPA Desktop\TPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20004EE7-5A6A-4AA2-A61B-7B4661B19DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE2E9B-DC00-4EDE-BB72-AB956B36AD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{A948D6AE-489F-4D94-958E-23FB62ACEBAB}"/>
   </bookViews>
@@ -36,17 +36,546 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="117">
   <si>
     <t>JI - Full Use Case Description</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Case name </t>
+  </si>
+  <si>
+    <t>Triggering Event</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>Actors</t>
+  </si>
+  <si>
+    <t>Related Use Cases</t>
+  </si>
+  <si>
+    <t>Stakeholders</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Postconditions</t>
+  </si>
+  <si>
+    <t>Flow of Activities</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Exception Conditions</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Manage employee's warning letter</t>
+  </si>
+  <si>
+    <t>Violation made by employee</t>
+  </si>
+  <si>
+    <t>View and update employee's warning letter</t>
+  </si>
+  <si>
+    <t>Violation made by employee will be viewed and managed by Human Resource Department, together with manager and.</t>
+  </si>
+  <si>
+    <t>Human Resource Department</t>
+  </si>
+  <si>
+    <t>- Employee must be available 
+- There are violations made by employee</t>
+  </si>
+  <si>
+    <t>Human Resource Department, Manager</t>
+  </si>
+  <si>
+    <t>Human Resource Department, Accounting and Finance Department, Storage Department, External Department, Promotion and Event Department, Movie Department, Café Department, and Administrator Department</t>
+  </si>
+  <si>
+    <t>1. Employee make violation(s)
+2. Human Resource Department and Manager reviewed the violation
+3. Human Resource Department and Manager make decision based on the discussion</t>
+  </si>
+  <si>
+    <t>1.1 System record violation made by employee
+1.2 System send violation notification to Human Resource Department
+2.1 System show all violation made by employee (current and before (if there is any))
+3.1 System record discussion decision
+3.2 System send discussion decision notification to employee</t>
+  </si>
+  <si>
+    <t>1.1 System error</t>
+  </si>
+  <si>
+    <t>Manage employee's personal leave request</t>
+  </si>
+  <si>
+    <t>View and update employee's personal leave request</t>
+  </si>
+  <si>
+    <t>Personal leave request submitted by employee</t>
+  </si>
+  <si>
+    <t>Personal leave request submitted by employee will be reviewed by Human Resource Department to be accepted or rejected</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>- Employee must be available 
+- There are personal leave request made by employee
+- The personal leave request must be valid</t>
+  </si>
+  <si>
+    <t>- Either warning letter is given to associate employee or not</t>
+  </si>
+  <si>
+    <t>- Either employee's personal leave request will be accepted or rejected</t>
+  </si>
+  <si>
+    <t>1. Employee make personal leave request for some request
+2. Human Resource Department review the personal leave request
+3. Human Resource Department accept or reject the request</t>
+  </si>
+  <si>
+    <t>1.1 System record personal leave request made by employee
+1.2 System send request to Human Resource Department
+2.1 System show the reason for the personal leave request
+3.1 System record the request result
+3.2 System send result notification to employee</t>
+  </si>
+  <si>
+    <t>Purchase new facilities and equipment</t>
+  </si>
+  <si>
+    <t>Purchase new facilities and equipment requested by department(s) that have been approved by Accounting and Finance Department</t>
+  </si>
+  <si>
+    <t>New facilities and equipment request</t>
+  </si>
+  <si>
+    <t>New facilities and equipment request that is submitted by theater department will be viewed by Accounting and Finance Department and will be purchased after the approvement</t>
+  </si>
+  <si>
+    <t>Accounting and Finance Department, Storage Department</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Will be invoke by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculate shortage or excess money </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Might be invoked by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manage employee's removal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use case</t>
+    </r>
+  </si>
+  <si>
+    <t>- There is new facilities and equipment request submitted by theater department
+- The request must be submitted with all the details</t>
+  </si>
+  <si>
+    <t>- Either theater department's request will be accepted and purchased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 System record new facilities and equipment request
+1.2 System send request to Accounting and Finance Department
+2.1 System show the detail for the request
+3.1 System record the request result
+3.2 System send result notification to Storage Department
+4.1 System record the purchasement </t>
+  </si>
+  <si>
+    <t>1. Theater department's make new facilities and equipment request
+2. Accounting and Finance Department reviewed the request
+3. Accounting and Finance Department approved the request
+4. Storage Department purchase the new facilities and equipment request</t>
+  </si>
+  <si>
+    <t>1.1 The request is rejected by Accounting and Finance Department</t>
+  </si>
+  <si>
+    <t>New movie production</t>
+  </si>
+  <si>
+    <t>Generate and distribute voucher</t>
+  </si>
+  <si>
+    <t>Generate and distribute voucher that is available in theater</t>
+  </si>
+  <si>
+    <t>New promo and/or event that is available in theater</t>
+  </si>
+  <si>
+    <t>The generation and distribution of the voucher of new promo and/or event that is available in theater</t>
+  </si>
+  <si>
+    <t>Promotion and Event Department, Movie Department (Movie Front Office Division)</t>
+  </si>
+  <si>
+    <t>Movie Department</t>
+  </si>
+  <si>
+    <t>- There is required condition fullfilled by member
+- The voucher of the promo/ event is still available</t>
+  </si>
+  <si>
+    <t>- The voucher can be used by member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Promotion and Event Department generate voucher based on promo and/or event
+2. Promotion and Event Department make some required condition(s) for the voucher usage
+3. Promotion and Event create the voucher
+</t>
+  </si>
+  <si>
+    <t>1.1 System record new promo and/or event (Either based on special day or not)
+2.1 System record the required condition(s)
+3.1 System generate the voucher
+3.2 System send the voucher to member
+3.3 System send the event into the cashier</t>
+  </si>
+  <si>
+    <t>Create movie schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Create movie schedule that have a contract with the theater</t>
+  </si>
+  <si>
+    <t>Scheduling movies that have a contract with the theater</t>
+  </si>
+  <si>
+    <t>Movie Department (Schedule Division), External Department</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Might be invoke by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Override movie schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use case</t>
+    </r>
+  </si>
+  <si>
+    <t>- There is a contract between the movie and the theater</t>
+  </si>
+  <si>
+    <t>- The movie will be scheduled and shown in the theater</t>
+  </si>
+  <si>
+    <t>1. Schedule division check the movie detail, including the movie contract
+2. Schedule division choose the movies to be shown along with the number of shows</t>
+  </si>
+  <si>
+    <t>1.1 System show the details of the movie
+2.1 System create the movie schedule automatically</t>
+  </si>
+  <si>
+    <t>1.1 The movie has no contract with the theater</t>
+  </si>
+  <si>
+    <t>New movie purchased</t>
+  </si>
+  <si>
+    <t>Movie Department (Front Office Division), Promotion and Event Department</t>
+  </si>
+  <si>
+    <t>- There is customer who want to buy movie ticket</t>
+  </si>
+  <si>
+    <t>Create Membership</t>
+  </si>
+  <si>
+    <t>Create membership for customer who has no membership card</t>
+  </si>
+  <si>
+    <t>Create membership for customer who has no membership card before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- The customer has a membership card </t>
+  </si>
+  <si>
+    <t>1. Movie Front Office Division will view member list
+2. Movie Front Office Division will create membership card for customer who wants to create one
+3. Movie Front Office Division will charge customer for additional card printing fee</t>
+  </si>
+  <si>
+    <t>1.1 System show the theater member list
+2.1 System will register the new member
+3.1 System will print the new membership card</t>
+  </si>
+  <si>
+    <t>1.1 The customer doesn't want to make a membership card</t>
+  </si>
+  <si>
+    <t>Prepare theater's rooms</t>
+  </si>
+  <si>
+    <t>Prepare theater's rooms that will be used</t>
+  </si>
+  <si>
+    <t>Scheduled movie</t>
+  </si>
+  <si>
+    <t>Prepare theater's rooms that will be used for scheduled movie</t>
+  </si>
+  <si>
+    <t>Movie Department (Oepration Division)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- There is a movie scheduled </t>
+  </si>
+  <si>
+    <t>- The room is going to be used again</t>
+  </si>
+  <si>
+    <t>1. Operation division will guide the customer from previous schedule
+2. Operation division will clean and check the theater's room  and also check the technical things for the scheduled movie
+3. Operation division will check customer's ticket</t>
+  </si>
+  <si>
+    <t>1.1 System show the movie schedule
+1.2 System notify operation divison 20 minutes before movie ends
+2.1 System will show the next movie schedule
+3.1 System will check the customer's ticket validation</t>
+  </si>
+  <si>
+    <t>1.1 The theater is not operating
+2.1 There is no next scheduled movie</t>
+  </si>
+  <si>
+    <t>Serve Café Customer</t>
+  </si>
+  <si>
+    <t>Serve Café customer who want to buy theater foods and beverages</t>
+  </si>
+  <si>
+    <t>Food and beverages purchasing</t>
+  </si>
+  <si>
+    <t>Café Department</t>
+  </si>
+  <si>
+    <t>- There is customer who want to buy foods and/or beverages</t>
+  </si>
+  <si>
+    <t>- The customer wait for order
+- The customer get the foods and/or beverages</t>
+  </si>
+  <si>
+    <t>1.1 System show the foods and beverages menus
+1.2 System will record the order
+2.1 System will check the available payment method
+2.2 System will print the receipt
+2.3 System will forward the order to the kitchen division
+2.4 System will show the order status on the screen
+3.1 System will show the completed order on the screen</t>
+  </si>
+  <si>
+    <t>1. Café Front Office Division will ask for foods and/or beverages details
+2. Café Front Office Division will ask for payment method the customer wants to use
+3. Café Front Office Division will serve the food and picked up by customer</t>
+  </si>
+  <si>
+    <t>1.1 The foods and/or beverages is unavailable</t>
+  </si>
+  <si>
+    <t>Café Department (Front Office Division), Kitchen Department</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Might be invoke by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make foods and/or beverages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use case</t>
+    </r>
+  </si>
+  <si>
+    <t>Make foods and/or beverages</t>
+  </si>
+  <si>
+    <t>Make foods and/or beverages ordered by customer</t>
+  </si>
+  <si>
+    <t>Café Department (Front Office Division), Café Department (Kitchen Division)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Might be invoke by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change order status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use case</t>
+    </r>
+  </si>
+  <si>
+    <t>- There is order from customer who buy foods and/or beverages</t>
+  </si>
+  <si>
+    <t>- The order is ready</t>
+  </si>
+  <si>
+    <t>1.1 System will show order from Café Front Office Division in ordered list
+1.2 System will what should be make first
+2.1 System will send status notification</t>
+  </si>
+  <si>
+    <t>1. Café Kitchen Division will make the ordered foods and/or beverages
+2. Café Kitchen Division will send status</t>
+  </si>
+  <si>
+    <t>Change order status</t>
+  </si>
+  <si>
+    <t>Change order status based on the kitchen condition</t>
+  </si>
+  <si>
+    <t>Food and beverages orders</t>
+  </si>
+  <si>
+    <t>Change order status based on the order made by kitchen</t>
+  </si>
+  <si>
+    <t>- The order is ready and served to the customer</t>
+  </si>
+  <si>
+    <t>1. Café Kitchen Division will change the status from ordered to processed
+2. Café Kitchen Division will change the status from processed to ready for completed order</t>
+  </si>
+  <si>
+    <t>1.1 System will change the order status on the screen above the Café Front Office Division
+2.1 System will change the order status on the screen above the Café Front Office Division</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,7 +591,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -70,12 +599,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,20 +1145,1729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB6F161-DBDF-4FAA-9E46-E218B0913528}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151:E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="145.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="2:5" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="16">
+        <v>3</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="2:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="31"/>
+    </row>
+    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="205.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="16">
+        <v>4</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="2:5" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="16">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="78" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="16">
+        <v>6</v>
+      </c>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="93" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="16">
+        <v>7</v>
+      </c>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="108" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="16">
+        <v>8</v>
+      </c>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="2:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="123" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="16">
+        <v>9</v>
+      </c>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="138" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="16">
+        <v>10</v>
+      </c>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="130">
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>